--- a/RA8 graphics benchmark/Graphics_benchmark_scratchpad.xlsx
+++ b/RA8 graphics benchmark/Graphics_benchmark_scratchpad.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Projects (not backed up)\RA8 graphics benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Projects (repos)\RA8 graphics benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19F9434-71B5-4EF1-830B-CAA62AA2D83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC70C63-30FD-4308-966C-D3590EB5C3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B7A2281A-D7BC-47B3-829F-18E497CCB8AC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B7A2281A-D7BC-47B3-829F-18E497CCB8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -609,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFC71C4-4E73-438A-80FA-912ACDF89196}">
   <dimension ref="A2:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46460588-604B-4943-AD78-ACE64520A8BA}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/RA8 graphics benchmark/Graphics_benchmark_scratchpad.xlsx
+++ b/RA8 graphics benchmark/Graphics_benchmark_scratchpad.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Projects (repos)\RA8 graphics benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC70C63-30FD-4308-966C-D3590EB5C3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12468940-A871-42AE-ACE8-CD6305E023E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B7A2281A-D7BC-47B3-829F-18E497CCB8AC}"/>
+    <workbookView xWindow="-28920" yWindow="-195" windowWidth="29040" windowHeight="16440" xr2:uid="{B7A2281A-D7BC-47B3-829F-18E497CCB8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="141">
   <si>
     <t>BCLK</t>
   </si>
@@ -130,6 +134,336 @@
   </si>
   <si>
     <t>data clks / 64</t>
+  </si>
+  <si>
+    <t>fps</t>
+  </si>
+  <si>
+    <t>ani</t>
+  </si>
+  <si>
+    <t>ITCM</t>
+  </si>
+  <si>
+    <t>RSV</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>64k</t>
+  </si>
+  <si>
+    <t>32M</t>
+  </si>
+  <si>
+    <t>FLASH</t>
+  </si>
+  <si>
+    <t>22F8000</t>
+  </si>
+  <si>
+    <t>0xE000_0000</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>0xA000_0000</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>0xC000_0000</t>
+  </si>
+  <si>
+    <t>0xB000_0000</t>
+  </si>
+  <si>
+    <t>0xD000_0000</t>
+  </si>
+  <si>
+    <t>0x8000_0000</t>
+  </si>
+  <si>
+    <t>OSPI</t>
+  </si>
+  <si>
+    <t>0x7000_0000</t>
+  </si>
+  <si>
+    <t>0x6000_0000</t>
+  </si>
+  <si>
+    <t>CS/SDRAM</t>
+  </si>
+  <si>
+    <t>0x5000_0000</t>
+  </si>
+  <si>
+    <t>peripheral I/O</t>
+  </si>
+  <si>
+    <t>0x4000_0000</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>0x3000_0000</t>
+  </si>
+  <si>
+    <t>DTCM</t>
+  </si>
+  <si>
+    <t>0x2000_0000</t>
+  </si>
+  <si>
+    <t>0x1000_0000</t>
+  </si>
+  <si>
+    <t>0x0000_0000</t>
+  </si>
+  <si>
+    <t>0x0200_0000</t>
+  </si>
+  <si>
+    <t>02f8000</t>
+  </si>
+  <si>
+    <t>0x0F00_0000</t>
+  </si>
+  <si>
+    <t>0x0E00_0000</t>
+  </si>
+  <si>
+    <t>0x0D00_0000</t>
+  </si>
+  <si>
+    <t>0x0C00_0000</t>
+  </si>
+  <si>
+    <t>0x0B00_0000</t>
+  </si>
+  <si>
+    <t>0x0A00_0000</t>
+  </si>
+  <si>
+    <t>0x0900_0000</t>
+  </si>
+  <si>
+    <t>0x0800_0000</t>
+  </si>
+  <si>
+    <t>0x0700_0000</t>
+  </si>
+  <si>
+    <t>0x0600_0000</t>
+  </si>
+  <si>
+    <t>0x0500_0000</t>
+  </si>
+  <si>
+    <t>0x0400_0000</t>
+  </si>
+  <si>
+    <t>0x0300_0000</t>
+  </si>
+  <si>
+    <t>0x0100_0000</t>
+  </si>
+  <si>
+    <t>TCM</t>
+  </si>
+  <si>
+    <t>rsv</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>assigned</t>
+  </si>
+  <si>
+    <t>simple battery</t>
+  </si>
+  <si>
+    <t>dismissed</t>
+  </si>
+  <si>
+    <t>criminal trespass</t>
+  </si>
+  <si>
+    <t>convicted</t>
+  </si>
+  <si>
+    <t>DUI</t>
+  </si>
+  <si>
+    <t>Burglary</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Forgery</t>
+  </si>
+  <si>
+    <t>1-23</t>
+  </si>
+  <si>
+    <t>4-30</t>
+  </si>
+  <si>
+    <t>11-24</t>
+  </si>
+  <si>
+    <t>Suspended DL</t>
+  </si>
+  <si>
+    <t>8-16</t>
+  </si>
+  <si>
+    <t>habitual offender</t>
+  </si>
+  <si>
+    <t>controlled substance</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>11-15</t>
+  </si>
+  <si>
+    <t>theft by taking</t>
+  </si>
+  <si>
+    <t>7-22</t>
+  </si>
+  <si>
+    <t>suspended DL</t>
+  </si>
+  <si>
+    <t>8-25</t>
+  </si>
+  <si>
+    <t>obstruction</t>
+  </si>
+  <si>
+    <t>driving under infl of drugs</t>
+  </si>
+  <si>
+    <t>Marijuana possession</t>
+  </si>
+  <si>
+    <t>2-26</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>1-27</t>
+  </si>
+  <si>
+    <t>Aggravated assult</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>probation violation</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>Domestic violence</t>
+  </si>
+  <si>
+    <t>cruilty to children</t>
+  </si>
+  <si>
+    <t>not prosecuted</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>5-31</t>
+  </si>
+  <si>
+    <t>7-25</t>
+  </si>
+  <si>
+    <t>Family Violence</t>
+  </si>
+  <si>
+    <t>7-26</t>
+  </si>
+  <si>
+    <t>Bail jumping</t>
+  </si>
+  <si>
+    <t>8-19</t>
+  </si>
+  <si>
+    <t>DUI  (drugs)</t>
+  </si>
+  <si>
+    <t>8-20</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>3-22</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>Meth</t>
+  </si>
+  <si>
+    <t>10-19</t>
+  </si>
+  <si>
+    <t>11-21</t>
+  </si>
+  <si>
+    <t>revocation</t>
+  </si>
+  <si>
+    <t>12-28</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>10-2</t>
+  </si>
+  <si>
+    <t>nolo</t>
+  </si>
+  <si>
+    <t>11-04</t>
+  </si>
+  <si>
+    <t>1-19</t>
+  </si>
+  <si>
+    <t>028307638</t>
   </si>
 </sst>
 </file>
@@ -169,7 +503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +534,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -213,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -223,6 +569,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFC71C4-4E73-438A-80FA-912ACDF89196}">
   <dimension ref="A2:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -1181,10 +1534,85 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AADD22B-AC4A-42EE-98BB-0BB0F9C2EC53}">
+  <dimension ref="E12:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>33*12+8</f>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>47.25</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f>E12/E13</f>
+        <v>8.5502645502645507</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f>8*47.25</f>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>E12-E16</f>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D820499-A4A4-4CDF-94C8-3760BAC13656}">
+  <dimension ref="B4:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46460588-604B-4943-AD78-ACE64520A8BA}">
   <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1242,4 +1670,1194 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C8AD88-3335-4DFE-950D-DABD6EF01C9F}">
+  <dimension ref="A1:J52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>DEC2HEX(A1,8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>65535</v>
+      </c>
+      <c r="B2" t="str">
+        <f>DEC2HEX(A2,8)</f>
+        <v>0000FFFF</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>65536</v>
+      </c>
+      <c r="B3" t="str">
+        <f>DEC2HEX(A3,8)</f>
+        <v>00010000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>33554431</v>
+      </c>
+      <c r="B4" t="str">
+        <f>DEC2HEX(A4,8)</f>
+        <v>01FFFFFF</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>33554432</v>
+      </c>
+      <c r="B5" t="str">
+        <f>DEC2HEX(A5,8)</f>
+        <v>02000000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <f>HEX2DEC(D15)</f>
+        <v>36667392</v>
+      </c>
+      <c r="F15">
+        <f>E15/1024</f>
+        <v>35808</v>
+      </c>
+      <c r="G15">
+        <f>F15/1024</f>
+        <v>34.96875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16">
+        <f>HEX2DEC(D16)</f>
+        <v>3112960</v>
+      </c>
+      <c r="F16">
+        <f>E16/1024</f>
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>E15-E16</f>
+        <v>33554432</v>
+      </c>
+      <c r="F17" t="str">
+        <f>DEC2HEX(E17,8)</f>
+        <v>02000000</v>
+      </c>
+      <c r="G17">
+        <f>E17/1024</f>
+        <v>32768</v>
+      </c>
+      <c r="H17">
+        <f>G17/1024</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="J26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:B31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1556A478-0F3A-4DBD-A368-D03759245E2E}">
+  <dimension ref="A2:I46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2">
+        <v>1987</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1988</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>1990</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1991</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1991</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1992</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1992</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1992</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1992</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1995</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1997</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>1998</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1998</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22">
+        <v>1999</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23">
+        <v>2001</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26">
+        <v>2004</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28">
+        <v>2005</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31">
+        <v>2005</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32">
+        <v>2005</v>
+      </c>
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36">
+        <v>2010</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37">
+        <v>2012</v>
+      </c>
+      <c r="D37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2013</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41">
+        <v>2015</v>
+      </c>
+      <c r="D41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42">
+        <v>2017</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43">
+        <v>2018</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44">
+        <v>2021</v>
+      </c>
+      <c r="D44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" t="s">
+        <v>137</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>SUM(A1:A44)</f>
+        <v>28</v>
+      </c>
+      <c r="G45">
+        <f>SUM(G1:G44)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f>C44-C2</f>
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RA8 graphics benchmark/Graphics_benchmark_scratchpad.xlsx
+++ b/RA8 graphics benchmark/Graphics_benchmark_scratchpad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Projects (repos)\RA8 graphics benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\POC\RA8 graphics benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12468940-A871-42AE-ACE8-CD6305E023E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF94B610-926C-4037-986E-DD089FD8C857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-195" windowWidth="29040" windowHeight="16440" xr2:uid="{B7A2281A-D7BC-47B3-829F-18E497CCB8AC}"/>
+    <workbookView xWindow="-24270" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{B7A2281A-D7BC-47B3-829F-18E497CCB8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFC71C4-4E73-438A-80FA-912ACDF89196}">
   <dimension ref="A2:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
